--- a/results-Myrstuen korttidsmodell.xlsx
+++ b/results-Myrstuen korttidsmodell.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,13 +458,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4440748710226063</v>
+        <v>0.4440748710226071</v>
       </c>
       <c r="C2" t="n">
-        <v>0.655990645048907</v>
+        <v>0.655990645048909</v>
       </c>
       <c r="D2" t="n">
-        <v>1.151630558495047</v>
+        <v>1.151630558495121</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -504,7 +504,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.006859303401148782</v>
+        <v>-0.006859303401148775</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.008572436241081137</v>
+        <v>-0.008572436241081114</v>
       </c>
     </row>
     <row r="7">
@@ -530,7 +530,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.005353158680837774</v>
+        <v>-0.005353158680837827</v>
       </c>
     </row>
   </sheetData>
